--- a/Data/healthmatic_raw.xlsx
+++ b/Data/healthmatic_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninarimsky/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninarimsky/PycharmProjects/PublicToiletDataFetcher/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E284F72-B334-AB4F-BA21-A47AB16497C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF9FF1-F18F-814D-9BB2-279ABE686E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36780" yWindow="-3100" windowWidth="31820" windowHeight="17400" xr2:uid="{6503F7B2-4675-4690-9868-652F90AA26BF}"/>
   </bookViews>
@@ -3962,6 +3962,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3974,7 +3975,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4293,7 +4293,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4367,10 +4367,10 @@
       <c r="O4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="53" t="s">
         <v>1162</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="53" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -4749,10 +4749,10 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>51.547549050000001</v>
+        <v>51.5473225</v>
       </c>
       <c r="Q12">
-        <v>-7.3997655316176594E-2</v>
+        <v>-7.2451799999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="25" x14ac:dyDescent="0.2">
@@ -7224,26 +7224,26 @@
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="54" t="s">
         <v>223</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="55" t="s">
+      <c r="E71" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="56" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="54"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
     </row>
     <row r="73" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
@@ -7540,13 +7540,13 @@
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="D94" s="55" t="s">
+      <c r="D94" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="E94" s="55" t="s">
+      <c r="E94" s="56" t="s">
         <v>284</v>
       </c>
       <c r="F94" s="5" t="s">
@@ -7554,9 +7554,9 @@
       </c>
     </row>
     <row r="95" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="54"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
       <c r="F95" s="7" t="s">
         <v>286</v>
       </c>
@@ -11594,26 +11594,26 @@
       </c>
     </row>
     <row r="384" spans="3:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="C384" s="53" t="s">
+      <c r="C384" s="54" t="s">
         <v>780</v>
       </c>
-      <c r="D384" s="55" t="s">
+      <c r="D384" s="56" t="s">
         <v>781</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F384" s="55" t="s">
+      <c r="F384" s="56" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="385" spans="3:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C385" s="54"/>
-      <c r="D385" s="56"/>
+      <c r="C385" s="55"/>
+      <c r="D385" s="57"/>
       <c r="E385" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="F385" s="56"/>
+      <c r="F385" s="57"/>
     </row>
     <row r="386" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C386" s="2" t="s">
@@ -12655,13 +12655,13 @@
       <c r="C460" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="D460" s="55" t="s">
+      <c r="D460" s="56" t="s">
         <v>896</v>
       </c>
-      <c r="E460" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F460" s="55" t="s">
+      <c r="E460" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F460" s="56" t="s">
         <v>897</v>
       </c>
     </row>
@@ -12669,9 +12669,9 @@
       <c r="C461" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="D461" s="56"/>
-      <c r="E461" s="56"/>
-      <c r="F461" s="56"/>
+      <c r="D461" s="57"/>
+      <c r="E461" s="57"/>
+      <c r="F461" s="57"/>
     </row>
     <row r="462" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C462" s="2" t="s">
@@ -13767,18 +13767,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
     <mergeCell ref="C384:C385"/>
     <mergeCell ref="D384:D385"/>
     <mergeCell ref="F384:F385"/>
     <mergeCell ref="D460:D461"/>
     <mergeCell ref="E460:E461"/>
     <mergeCell ref="F460:F461"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://en.wikipedia.org/wiki/Abbey_Wood" xr:uid="{DA1E77A6-115F-45F3-AC39-B8F9FFAD4546}"/>
